--- a/UseCaseScenarij/ZakazivanjeTerminaPrekoRecepcionara.xlsx
+++ b/UseCaseScenarij/ZakazivanjeTerminaPrekoRecepcionara.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\OOAD scenariji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdnaN\Desktop\update ovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,12 +80,6 @@
     <t xml:space="preserve">Pacijent se neće moči liječiti u željenom </t>
   </si>
   <si>
-    <t>Tok događaja - Neuspješan završetak</t>
-  </si>
-  <si>
-    <t>Scenarij 2: Zakazivanje termina preko recepcionara</t>
-  </si>
-  <si>
     <t>Zakazivanje termina preko recepcionara</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">9. Obavještava </t>
+  </si>
+  <si>
+    <t>Scenarij 3:  Zakazivanje termina preko recepcionara</t>
+  </si>
+  <si>
+    <t>Alternativni tok događaja - Neuspješan završetak</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -740,7 +740,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -766,7 +766,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -795,14 +795,14 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="9"/>
@@ -810,21 +810,21 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8"/>
     </row>
@@ -832,40 +832,40 @@
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="1"/>
@@ -880,37 +880,37 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
@@ -921,7 +921,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -940,16 +940,16 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8"/>
     </row>
